--- a/biology/Zoologie/Aiolopus_strepens/Aiolopus_strepens.xlsx
+++ b/biology/Zoologie/Aiolopus_strepens/Aiolopus_strepens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aiolopus strepens, l'œdipode automnal ou le criquet farouche, est une espèce d'insectes de l'ordre des orthoptères, de la famille des Acrididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tibias postérieurs sont rouges et les élytres bien contrastés avec 2 taches claires bien marquées et caractéristiques. Les ailes sont bleuâtres à la base avec une tache apicale sombre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tibias postérieurs sont rouges et les élytres bien contrastés avec 2 taches claires bien marquées et caractéristiques. Les ailes sont bleuâtres à la base avec une tache apicale sombre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit majoritairement dans la moitié sud de la France[3] et en Corse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit majoritairement dans la moitié sud de la France et en Corse.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieux chauds et secs.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 janvier 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 janvier 2023) :
 Aiolopus strepens alexandrei Defaut, 2017
 Aiolopus strepens chloroptera Ramme, 1913
 Aiolopus strepens cyanoptera Ramme, 1913
